--- a/Test Cases - Documentation/Assist DevQa-Test Case Documentation.xlsx
+++ b/Test Cases - Documentation/Assist DevQa-Test Case Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alina\Desktop\GitHub - Cypress\automated-tests\Test Cases - Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED8C3E-B345-4E27-829C-C53A36E6603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FE156-1321-4E20-AE79-75A83012288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,9 +562,6 @@
     <t>Check the "History" page content</t>
   </si>
   <si>
-    <t>C24</t>
-  </si>
-  <si>
     <t>1. Home page should be displayed_x000D_
 2. The user should be logged in the account and automatically sent to the home page_x000D_
 3. A new page should be displayed "History"_x000D_
@@ -711,6 +708,9 @@
   </si>
   <si>
     <t>*The printscreens and the video recordings related to the bugs found are in the folder "automated-tests" - "Test Case -Documentantion"</t>
+  </si>
+  <si>
+    <t>C17</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2009,10 +2009,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>18</v>
@@ -2038,7 +2038,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>23</v>
@@ -2096,7 +2096,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
@@ -2136,7 +2136,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2176,7 +2176,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -2292,7 +2292,7 @@
         <v>60</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>18</v>
@@ -2332,7 +2332,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -2372,7 +2372,7 @@
         <v>70</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -2454,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>83</v>
@@ -2498,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>89</v>
@@ -2542,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>95</v>
@@ -2574,7 +2574,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>23</v>
@@ -2586,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>101</v>
@@ -2630,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>109</v>
@@ -2656,7 +2656,7 @@
         <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -2674,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>115</v>
@@ -2700,7 +2700,7 @@
         <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
@@ -2718,7 +2718,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>115</v>
@@ -2744,7 +2744,7 @@
         <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
@@ -2758,13 +2758,13 @@
         <v>16</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>126</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -2784,7 +2784,7 @@
         <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
@@ -2798,13 +2798,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>131</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>18</v>
@@ -2824,7 +2824,7 @@
         <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
@@ -2842,7 +2842,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>136</v>
@@ -2868,7 +2868,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
@@ -2886,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>142</v>
@@ -2912,7 +2912,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
@@ -2930,13 +2930,13 @@
         <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>28</v>
@@ -2945,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2969,27 +2969,27 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="8"/>
       <c r="D30" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="8"/>
       <c r="D31" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3008,21 +3008,21 @@
         <v>4</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="8"/>
       <c r="D36" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -3038,17 +3038,17 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="8"/>
       <c r="D40" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Test Cases - Documentation/Assist DevQa-Test Case Documentation.xlsx
+++ b/Test Cases - Documentation/Assist DevQa-Test Case Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alina\Desktop\GitHub - Cypress\automated-tests\Test Cases - Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FE156-1321-4E20-AE79-75A83012288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD0C3D-A93D-49FE-B13E-A32D34864537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="179">
   <si>
     <t>Title</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>C17</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1927,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1955,9 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
